--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1272 +397,1372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>8.406528234391422</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.3439698963392167</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1.843179419022632</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="F2">
         <v>2.987222620843626</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>6.504863980574545</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H2" t="n">
-        <v>20.19740975488285</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>21.44346697289762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8.349956711952716</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.3126999057629243</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3.891156551270001</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="F3">
         <v>2.418227835921031</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>5.59190061487987</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.1674684055671058</v>
       </c>
-      <c r="H3" t="n">
-        <v>20.73141002535365</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>21.97746724336842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>8.847786109413313</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.6253998115258486</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3.071965698371054</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>1.557571522518465</v>
+      </c>
+      <c r="F4">
         <v>2.190629921951992</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>5.135418932032534</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.3907596129899135</v>
       </c>
-      <c r="H4" t="n">
-        <v>20.26196008628466</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>21.81953160880312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>11.61979070890981</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.218889934034047</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>5.017543974006055</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>2.180600131525851</v>
+      </c>
+      <c r="F5">
         <v>2.275979139690381</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>2.967130938507688</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.1674684055671058</v>
       </c>
-      <c r="H5" t="n">
-        <v>22.26680310071509</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>24.44740323224094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>15.03671066420754</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.1563499528814621</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>4.300751977719476</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>2.595952537530775</v>
+      </c>
+      <c r="F6">
         <v>1.906132529490695</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>3.195371779931354</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.1674684055671058</v>
       </c>
-      <c r="H6" t="n">
-        <v>24.76278530979763</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>27.3587378473284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>12.75122115768389</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.1563499528814621</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2.559971415309212</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>3.218981146538159</v>
+      </c>
+      <c r="F7">
         <v>1.337137744568099</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>2.967130938507688</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.2791140092785097</v>
       </c>
-      <c r="H7" t="n">
-        <v>20.05092521822885</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>23.26990636476701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>9.028814981217165</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.3752398869155092</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1.740780562410264</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>1.972923928523388</v>
+      </c>
+      <c r="F8">
         <v>0.7681429596455039</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>4.907178090608866</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H8" t="n">
-        <v>16.93180208450871</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>18.9047260130321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>5.611895025919443</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1.843179419022632</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>3.011304943535698</v>
+      </c>
+      <c r="F9">
         <v>0.7965926988916336</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>5.249539352744369</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H9" t="n">
-        <v>13.74464924189154</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>16.75595418542723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>4.559664708559546</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.3439698963392167</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.8191908528989478</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>0.8307048120098477</v>
+      </c>
+      <c r="F10">
         <v>0.4836455671842062</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>3.195371779931354</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>9.401842804913271</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>10.23254761692312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2.998290689251316</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.0938099717288773</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.3071965698371054</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>1.349895319516003</v>
+      </c>
+      <c r="F11">
         <v>0.3413968709535573</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>3.423612621355023</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>7.164306723125879</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>8.514202042641882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.697145673161122</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.2047977132247369</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>0.8307048120098477</v>
+      </c>
+      <c r="F12">
         <v>0.1706984354767787</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>1.027083786406507</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.436978325311479</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>4.267683137321327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1.029601708384413</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.1250799623051697</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.2047977132247369</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="F13">
         <v>0.1706984354767787</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.912963365694673</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>2.443141185085771</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>2.962331692591927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.5996581378502626</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.3071965698371054</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="F14">
         <v>0.2560476532151679</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>1.711806310677511</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>3.062328615037802</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>3.477681021042726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.2828576121935204</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.1563499528814621</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.3071965698371054</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>0.103838101501231</v>
+      </c>
+      <c r="F15">
         <v>0.2560476532151679</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>0.7988429449828386</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>1.801294733110094</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>1.905132834611325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.1584002628283714</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.0938099717288773</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.1023988566123685</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16">
         <v>0.08534921773838933</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>1.369445048542009</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="I16">
         <v>1.809403357450016</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.7693727051663752</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.2047977132247369</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="F17">
         <v>0.2275979139690381</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>2.853010517795852</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>4.054778850156002</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>4.470131256160926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1.855545935989493</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1250799623051697</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.4095954264494739</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="F18">
         <v>0.7396932203993741</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>6.390743559862709</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>9.52065810500622</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>10.76671532302099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>5.860809724649742</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.0938099717288773</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1.023988566123685</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>4.361200263051701</v>
+      </c>
+      <c r="F19">
         <v>1.479386440798748</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>9.129633656946726</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>0.1674684055671058</v>
       </c>
-      <c r="H19" t="n">
-        <v>17.75509676581488</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>22.11629702886659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>11.83476249417689</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>3.379162268208161</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>3.634333552543085</v>
+      </c>
+      <c r="F20">
         <v>2.44667757516716</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>6.618984401286378</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.3349368111342116</v>
       </c>
-      <c r="H20" t="n">
-        <v>24.80214349343056</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>28.43647704597364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>13.00013585641419</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.3439698963392167</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2.047977132247369</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>2.699790639032006</v>
+      </c>
+      <c r="F21">
         <v>2.133730443459733</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>6.162502718439041</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.3349368111342116</v>
       </c>
-      <c r="H21" t="n">
-        <v>24.02325285803377</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>26.72304349706577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>10.16024542999125</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.218889934034047</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2.867167985146317</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>2.699790639032006</v>
+      </c>
+      <c r="F22">
         <v>2.50357705365942</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>7.760188608404719</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.2791140092785097</v>
       </c>
-      <c r="H22" t="n">
-        <v>23.78918302051426</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>26.48897365954626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>7.161954740739933</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.5315898397969715</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>2.355173702084475</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="F23">
         <v>3.072571838582016</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>7.646068187692886</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.3349368111342116</v>
       </c>
-      <c r="H23" t="n">
-        <v>21.10229512003049</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>22.1406761350428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>7.297726394592822</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2.764769128533949</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>1.557571522518465</v>
+      </c>
+      <c r="F24">
         <v>2.844973924612977</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>6.847225242710046</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.1674684055671058</v>
       </c>
-      <c r="H24" t="n">
-        <v>20.10978303947466</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>21.66735456199312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>6.86778282405867</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.4065098774918017</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>1.843179419022632</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>1.349895319516003</v>
+      </c>
+      <c r="F25">
         <v>1.792333572506176</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>5.021298511320698</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H25" t="n">
-        <v>16.04274980811138</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>17.39264512762739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>7.94264175039405</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.218889934034047</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>2.867167985146317</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>1.142219116513541</v>
+      </c>
+      <c r="F26">
         <v>2.788074446120718</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>5.59190061487987</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.2791140092785097</v>
       </c>
-      <c r="H26" t="n">
-        <v>19.68778873985351</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>20.83000785636705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>7.693727051663751</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.2501599246103395</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2.252774845472106</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="F27">
         <v>1.706984354767786</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>6.048382297727207</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H27" t="n">
-        <v>18.06367407795259</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>19.1020550929649</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>8.485728365805608</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.3439698963392167</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>3.788757694657634</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>1.765247725520927</v>
+      </c>
+      <c r="F28">
         <v>2.53202679290555</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>5.363659773456201</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H28" t="n">
-        <v>20.73743373058702</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>22.50268145610795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>12.17419162880912</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.3752398869155092</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>4.198353121107107</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>2.07676203002462</v>
+      </c>
+      <c r="F29">
         <v>2.702725228382328</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>3.651853462778692</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.2791140092785097</v>
       </c>
-      <c r="H29" t="n">
-        <v>23.38147733727126</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>25.45823936729588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>13.80345147504379</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.437779868068094</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>4.095954264494739</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>2.388276334528312</v>
+      </c>
+      <c r="F30">
         <v>1.763883833260046</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>2.624769676372185</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.2791140092785097</v>
       </c>
-      <c r="H30" t="n">
-        <v>23.00495312651736</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>25.39322946104567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>12.94356433397548</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.3126999057629243</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>4.403150834331844</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>3.322819248039391</v>
+      </c>
+      <c r="F31">
         <v>1.365587483814229</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>4.222455566337862</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H31" t="n">
-        <v>23.35910372793375</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>26.68192297597314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>8.236813667075307</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.2501599246103395</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>4.198353121107107</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>2.803628740533236</v>
+      </c>
+      <c r="F32">
         <v>1.19488904833745</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>4.793057669897035</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
-        <v>18.67327343102724</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>21.47690217156048</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>5.204580064360772</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.3752398869155092</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>2.150375988859738</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>3.322819248039391</v>
+      </c>
+      <c r="F33">
         <v>0.6543440026609847</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>4.108335145626028</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>12.49287508842303</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>15.81569433646242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>4.401264445731178</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.218889934034047</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>1.023988566123685</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="F34">
         <v>0.5689947849225954</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>3.537733042066858</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H34" t="n">
-        <v>9.806693574734066</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>10.84507458974638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>3.484805782224169</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>1.126387422736053</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>1.453733421017234</v>
+      </c>
+      <c r="F35">
         <v>0.7396932203993741</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>3.765973883490525</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H35" t="n">
-        <v>9.454113025892458</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>10.90784644690969</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1.798974413550789</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.218889934034047</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.6143931396742108</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>0.7268667105086168</v>
+      </c>
+      <c r="F36">
         <v>0.3413968709535573</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>1.825926731389346</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>4.79958108960195</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>5.526447800110566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1.097487535310859</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.2814299151866319</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.2047977132247369</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="F37">
         <v>0.3698466101996871</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>1.141204207118341</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.05582280185570195</v>
       </c>
-      <c r="H37" t="n">
-        <v>3.150588782895958</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>3.669779290402113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.5317723109238183</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.3126999057629243</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.2047977132247369</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="F38">
         <v>0.2560476532151679</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>1.255324627830175</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>2.560642210956822</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>3.079832718462977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.4073149615586692</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.0938099717288773</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
+      <c r="F39">
         <v>0.1422486962306488</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>1.255324627830175</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="I39">
         <v>1.89869825734837</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.3960006570709285</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.1250799623051697</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.2076762030024619</v>
+      </c>
+      <c r="F40">
         <v>0.2560476532151679</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>2.396528834948517</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>3.173657107539784</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>3.381333310542245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.8712014455560423</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.06253998115258487</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.4095954264494739</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="F41">
         <v>0.5120953064303359</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>4.564816828473363</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>6.4202489880618</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>6.835601394066724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1.934746067403679</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.9215897095113162</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>1.453733421017234</v>
+      </c>
+      <c r="F42">
         <v>0.7112434811532443</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>5.82014145630354</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H42" t="n">
-        <v>9.686986261540939</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>11.14071968255817</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>6.437839253524516</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.1563499528814621</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>1.228786279348422</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>4.672714567555394</v>
+      </c>
+      <c r="F43">
         <v>1.849233050998435</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>8.901392815523058</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>18.57360135227589</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>23.24631591983129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>11.64241931788529</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.1876199434577546</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>3.071965698371054</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>3.738171654044316</v>
+      </c>
+      <c r="F44">
         <v>2.275979139690381</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>8.102549870540223</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>0.3349368111342116</v>
       </c>
-      <c r="H44" t="n">
-        <v>25.61547078107892</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>29.35364243512323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>12.73990685319615</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.3126999057629243</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>2.867167985146317</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>2.492114436029544</v>
+      </c>
+      <c r="F45">
         <v>1.820783311752305</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>5.934261877015375</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H45" t="n">
-        <v>23.89811114029589</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>26.39022557632542</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>9.594530205604201</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.4690498586443865</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>2.969566841758686</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>2.284438233027082</v>
+      </c>
+      <c r="F46">
         <v>2.190629921951992</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>8.216670291252056</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H46" t="n">
-        <v>23.66373832663413</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>25.94817655966121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>7.263783481129601</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.3126999057629243</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>2.867167985146317</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>1.661409624019695</v>
+      </c>
+      <c r="F47">
         <v>2.702725228382328</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>8.102549870540223</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.2791140092785097</v>
       </c>
-      <c r="H47" t="n">
-        <v>21.5280404802399</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>23.1894501042596</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>7.060126000350265</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.218889934034047</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>2.252774845472106</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>1.765247725520927</v>
+      </c>
+      <c r="F48">
         <v>2.58892627139781</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>5.82014145630354</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.2232912074228078</v>
       </c>
-      <c r="H48" t="n">
-        <v>18.16414971498058</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>19.9293974405015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>7.28641209010508</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.500319849220679</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>2.252774845472106</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>1.349895319516003</v>
+      </c>
+      <c r="F49">
         <v>2.133730443459733</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>4.678937249185199</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.1116456037114039</v>
       </c>
-      <c r="H49" t="n">
-        <v>16.9638200811542</v>
+      <c r="I49">
+        <v>18.3137154006702</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>8.406528234391422</v>
+        <v>16.15865606730327</v>
       </c>
       <c r="C2">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="D2">
-        <v>1.843179419022632</v>
+        <v>3.542877805426738</v>
       </c>
       <c r="E2">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="F2">
-        <v>2.987222620843626</v>
+        <v>5.74190695383715</v>
       </c>
       <c r="G2">
-        <v>6.504863980574545</v>
+        <v>12.50336130397861</v>
       </c>
       <c r="H2">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I2">
-        <v>21.44346697289762</v>
+        <v>41.2176820257493</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>8.349956711952716</v>
+        <v>16.04991679363367</v>
       </c>
       <c r="C3">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="D3">
-        <v>3.891156551270001</v>
+        <v>7.479408700345335</v>
       </c>
       <c r="E3">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="F3">
-        <v>2.418227835921031</v>
+        <v>4.648210391201502</v>
       </c>
       <c r="G3">
-        <v>5.59190061487987</v>
+        <v>10.74850357710442</v>
       </c>
       <c r="H3">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="I3">
-        <v>21.97746724336842</v>
+        <v>42.24411368336087</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>8.847786109413313</v>
+        <v>17.00682240192618</v>
       </c>
       <c r="C4">
-        <v>0.6253998115258486</v>
+        <v>1.202115805388009</v>
       </c>
       <c r="D4">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="E4">
-        <v>1.557571522518465</v>
+        <v>2.993894962445672</v>
       </c>
       <c r="F4">
-        <v>2.190629921951992</v>
+        <v>4.210731766147243</v>
       </c>
       <c r="G4">
-        <v>5.135418932032534</v>
+        <v>9.871074713667328</v>
       </c>
       <c r="H4">
-        <v>0.3907596129899135</v>
+        <v>0.7511008129925884</v>
       </c>
       <c r="I4">
-        <v>21.81953160880312</v>
+        <v>41.94053680494491</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>11.61979070890981</v>
+        <v>22.33504681173682</v>
       </c>
       <c r="C5">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="D5">
-        <v>5.017543974006055</v>
+        <v>9.644500692550563</v>
       </c>
       <c r="E5">
-        <v>2.180600131525851</v>
+        <v>4.191452947423941</v>
       </c>
       <c r="F5">
-        <v>2.275979139690381</v>
+        <v>4.37478625054259</v>
       </c>
       <c r="G5">
-        <v>2.967130938507688</v>
+        <v>5.703287612341122</v>
       </c>
       <c r="H5">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="I5">
-        <v>24.44740323224094</v>
+        <v>46.99171519490623</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>15.03671066420754</v>
+        <v>28.90289894138095</v>
       </c>
       <c r="C6">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="D6">
-        <v>4.300751977719476</v>
+        <v>8.266714879329053</v>
       </c>
       <c r="E6">
-        <v>2.595952537530775</v>
+        <v>4.989824937409453</v>
       </c>
       <c r="F6">
-        <v>1.906132529490695</v>
+        <v>3.663883484829419</v>
       </c>
       <c r="G6">
-        <v>3.195371779931354</v>
+        <v>6.142002044059672</v>
       </c>
       <c r="H6">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="I6">
-        <v>27.3587378473284</v>
+        <v>52.58775358678094</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>12.75122115768389</v>
+        <v>24.50983228512893</v>
       </c>
       <c r="C7">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="D7">
-        <v>2.559971415309212</v>
+        <v>4.920663618648246</v>
       </c>
       <c r="E7">
-        <v>3.218981146538159</v>
+        <v>6.187382922387723</v>
       </c>
       <c r="F7">
-        <v>1.337137744568099</v>
+        <v>2.570186922193772</v>
       </c>
       <c r="G7">
-        <v>2.967130938507688</v>
+        <v>5.703287612341122</v>
       </c>
       <c r="H7">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="I7">
-        <v>23.26990636476701</v>
+        <v>44.72838289275578</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>9.028814981217165</v>
+        <v>17.35478807766892</v>
       </c>
       <c r="C8">
-        <v>0.3752398869155092</v>
+        <v>0.7212694832328053</v>
       </c>
       <c r="D8">
-        <v>1.740780562410264</v>
+        <v>3.346051260680807</v>
       </c>
       <c r="E8">
-        <v>1.972923928523388</v>
+        <v>3.792266952431184</v>
       </c>
       <c r="F8">
-        <v>0.7681429596455039</v>
+        <v>1.476490359558124</v>
       </c>
       <c r="G8">
-        <v>4.907178090608866</v>
+        <v>9.432360281948778</v>
       </c>
       <c r="H8">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I8">
-        <v>18.9047260130321</v>
+        <v>36.33782664780421</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>5.611895025919443</v>
+        <v>10.7869359480248</v>
       </c>
       <c r="C9">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D9">
-        <v>1.843179419022632</v>
+        <v>3.542877805426738</v>
       </c>
       <c r="E9">
-        <v>3.011304943535698</v>
+        <v>5.788196927394965</v>
       </c>
       <c r="F9">
-        <v>0.7965926988916336</v>
+        <v>1.531175187689907</v>
       </c>
       <c r="G9">
-        <v>5.249539352744369</v>
+        <v>10.0904319295266</v>
       </c>
       <c r="H9">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I9">
-        <v>16.75595418542723</v>
+        <v>32.20755265582122</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>4.559664708559546</v>
+        <v>8.764385457770146</v>
       </c>
       <c r="C10">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="D10">
-        <v>0.8191908528989478</v>
+        <v>1.574612357967439</v>
       </c>
       <c r="E10">
-        <v>0.8307048120098477</v>
+        <v>1.596743979971024</v>
       </c>
       <c r="F10">
-        <v>0.4836455671842062</v>
+        <v>0.9296420782403003</v>
       </c>
       <c r="G10">
-        <v>3.195371779931354</v>
+        <v>6.142002044059672</v>
       </c>
       <c r="I10">
-        <v>10.23254761692312</v>
+        <v>19.66854961097199</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>2.998290689251316</v>
+        <v>5.763181504489051</v>
       </c>
       <c r="C11">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="D11">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="E11">
-        <v>1.349895319516003</v>
+        <v>2.594708967452916</v>
       </c>
       <c r="F11">
-        <v>0.3413968709535573</v>
+        <v>0.6562179375813884</v>
       </c>
       <c r="G11">
-        <v>3.423612621355023</v>
+        <v>6.580716475778218</v>
       </c>
       <c r="I11">
-        <v>8.514202042641882</v>
+        <v>16.36562189034756</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>1.697145673161122</v>
+        <v>3.262178210088144</v>
       </c>
       <c r="C12">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D12">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="E12">
-        <v>0.8307048120098477</v>
+        <v>1.596743979971024</v>
       </c>
       <c r="F12">
-        <v>0.1706984354767787</v>
+        <v>0.3281089687906942</v>
       </c>
       <c r="G12">
-        <v>1.027083786406507</v>
+        <v>1.974214942733466</v>
       </c>
       <c r="H12">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I12">
-        <v>4.267683137321327</v>
+        <v>8.203151419641591</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>1.029601708384413</v>
+        <v>1.979054780786807</v>
       </c>
       <c r="C13">
-        <v>0.1250799623051697</v>
+        <v>0.2404231610776017</v>
       </c>
       <c r="D13">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="E13">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="F13">
-        <v>0.1706984354767787</v>
+        <v>0.3281089687906942</v>
       </c>
       <c r="G13">
-        <v>0.912963365694673</v>
+        <v>1.754857726874192</v>
       </c>
       <c r="I13">
-        <v>2.962331692591927</v>
+        <v>5.694062714503045</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.5996581378502626</v>
+        <v>1.152636300897811</v>
       </c>
       <c r="C14">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D14">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="E14">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="F14">
-        <v>0.2560476532151679</v>
+        <v>0.4921634531860414</v>
       </c>
       <c r="G14">
-        <v>1.711806310677511</v>
+        <v>3.290358237889109</v>
       </c>
       <c r="I14">
-        <v>3.477681021042726</v>
+        <v>6.684644357812665</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.2828576121935204</v>
+        <v>0.5436963683480243</v>
       </c>
       <c r="C15">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="D15">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="E15">
-        <v>0.103838101501231</v>
+        <v>0.199592997496378</v>
       </c>
       <c r="F15">
-        <v>0.2560476532151679</v>
+        <v>0.4921634531860414</v>
       </c>
       <c r="G15">
-        <v>0.7988429449828386</v>
+        <v>1.535500511014918</v>
       </c>
       <c r="I15">
-        <v>1.905132834611325</v>
+        <v>3.661961915630153</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1584002628283714</v>
+        <v>0.3044699662748935</v>
       </c>
       <c r="C16">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="D16">
-        <v>0.1023988566123685</v>
+        <v>0.1968265447459298</v>
       </c>
       <c r="F16">
-        <v>0.08534921773838933</v>
+        <v>0.1640544843953471</v>
       </c>
       <c r="G16">
-        <v>1.369445048542009</v>
+        <v>2.632286590311287</v>
       </c>
       <c r="I16">
-        <v>1.809403357450016</v>
+        <v>3.477954956535659</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.7693727051663752</v>
+        <v>1.478854121906625</v>
       </c>
       <c r="D17">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="E17">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="F17">
-        <v>0.2275979139690381</v>
+        <v>0.4374786250542589</v>
       </c>
       <c r="G17">
-        <v>2.853010517795852</v>
+        <v>5.483930396481848</v>
       </c>
       <c r="I17">
-        <v>4.470131256160926</v>
+        <v>8.592288222920104</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>1.855545935989493</v>
+        <v>3.566648176363038</v>
       </c>
       <c r="C18">
-        <v>0.1250799623051697</v>
+        <v>0.2404231610776017</v>
       </c>
       <c r="D18">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="E18">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="F18">
-        <v>0.7396932203993741</v>
+        <v>1.421805531426342</v>
       </c>
       <c r="G18">
-        <v>6.390743559862709</v>
+        <v>12.28400408811934</v>
       </c>
       <c r="I18">
-        <v>10.76671532302099</v>
+        <v>20.69530310592658</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>5.860809724649742</v>
+        <v>11.26538875217106</v>
       </c>
       <c r="C19">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="D19">
-        <v>1.023988566123685</v>
+        <v>1.968265447459299</v>
       </c>
       <c r="E19">
-        <v>4.361200263051701</v>
+        <v>8.382905894847882</v>
       </c>
       <c r="F19">
-        <v>1.479386440798748</v>
+        <v>2.843611062852684</v>
       </c>
       <c r="G19">
-        <v>9.129633656946726</v>
+        <v>17.54857726874192</v>
       </c>
       <c r="H19">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="I19">
-        <v>22.11629702886659</v>
+        <v>42.51096614530643</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>11.83476249417689</v>
+        <v>22.74825605168133</v>
       </c>
       <c r="C20">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D20">
-        <v>3.379162268208161</v>
+        <v>6.495275976615685</v>
       </c>
       <c r="E20">
-        <v>3.634333552543085</v>
+        <v>6.985754912373235</v>
       </c>
       <c r="F20">
-        <v>2.44667757516716</v>
+        <v>4.702895219333283</v>
       </c>
       <c r="G20">
-        <v>6.618984401286378</v>
+        <v>12.72271851983789</v>
       </c>
       <c r="H20">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="I20">
-        <v>28.43647704597364</v>
+        <v>54.65933611830862</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>13.00013585641419</v>
+        <v>24.98828508927517</v>
       </c>
       <c r="C21">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="D21">
-        <v>2.047977132247369</v>
+        <v>3.936530894918598</v>
       </c>
       <c r="E21">
-        <v>2.699790639032006</v>
+        <v>5.189417934905832</v>
       </c>
       <c r="F21">
-        <v>2.133730443459733</v>
+        <v>4.101362109883679</v>
       </c>
       <c r="G21">
-        <v>6.162502718439041</v>
+        <v>11.84528965640079</v>
       </c>
       <c r="H21">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="I21">
-        <v>26.72304349706577</v>
+        <v>51.36585007519827</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>10.16024542999125</v>
+        <v>19.52957355106101</v>
       </c>
       <c r="C22">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="D22">
-        <v>2.867167985146317</v>
+        <v>5.511143252886036</v>
       </c>
       <c r="E22">
-        <v>2.699790639032006</v>
+        <v>5.189417934905832</v>
       </c>
       <c r="F22">
-        <v>2.50357705365942</v>
+        <v>4.812264875596849</v>
       </c>
       <c r="G22">
-        <v>7.760188608404719</v>
+        <v>14.91629067843063</v>
       </c>
       <c r="H22">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="I22">
-        <v>26.48897365954626</v>
+        <v>50.91593140547515</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>7.161954740739933</v>
+        <v>13.76639204657197</v>
       </c>
       <c r="C23">
-        <v>0.5315898397969715</v>
+        <v>1.021798434579807</v>
       </c>
       <c r="D23">
-        <v>2.355173702084475</v>
+        <v>4.527010529156385</v>
       </c>
       <c r="E23">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="F23">
-        <v>3.072571838582016</v>
+        <v>5.905961438232497</v>
       </c>
       <c r="G23">
-        <v>7.646068187692886</v>
+        <v>14.69693346257135</v>
       </c>
       <c r="H23">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="I23">
-        <v>22.1406761350428</v>
+        <v>42.55782658292658</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>7.297726394592822</v>
+        <v>14.02736630337902</v>
       </c>
       <c r="C24">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D24">
-        <v>2.764769128533949</v>
+        <v>5.314316708140104</v>
       </c>
       <c r="E24">
-        <v>1.557571522518465</v>
+        <v>2.993894962445672</v>
       </c>
       <c r="F24">
-        <v>2.844973924612977</v>
+        <v>5.468482813178238</v>
       </c>
       <c r="G24">
-        <v>6.847225242710046</v>
+        <v>13.16143295155644</v>
       </c>
       <c r="H24">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="I24">
-        <v>21.66735456199312</v>
+        <v>41.64802882874127</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>6.86778282405867</v>
+        <v>13.20094782349002</v>
       </c>
       <c r="C25">
-        <v>0.4065098774918017</v>
+        <v>0.7813752735022055</v>
       </c>
       <c r="D25">
-        <v>1.843179419022632</v>
+        <v>3.542877805426738</v>
       </c>
       <c r="E25">
-        <v>1.349895319516003</v>
+        <v>2.594708967452916</v>
       </c>
       <c r="F25">
-        <v>1.792333572506176</v>
+        <v>3.44514417230229</v>
       </c>
       <c r="G25">
-        <v>5.021298511320698</v>
+        <v>9.651717497808056</v>
       </c>
       <c r="H25">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I25">
-        <v>17.39264512762739</v>
+        <v>33.43137177226582</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>7.94264175039405</v>
+        <v>15.26699402321251</v>
       </c>
       <c r="C26">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="D26">
-        <v>2.867167985146317</v>
+        <v>5.511143252886036</v>
       </c>
       <c r="E26">
-        <v>1.142219116513541</v>
+        <v>2.19552297246016</v>
       </c>
       <c r="F26">
-        <v>2.788074446120718</v>
+        <v>5.359113156914672</v>
       </c>
       <c r="G26">
-        <v>5.59190061487987</v>
+        <v>10.74850357710442</v>
       </c>
       <c r="H26">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="I26">
-        <v>20.83000785636705</v>
+        <v>40.0385180951726</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>7.693727051663751</v>
+        <v>14.78854121906626</v>
       </c>
       <c r="C27">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="D27">
-        <v>2.252774845472106</v>
+        <v>4.330183984410456</v>
       </c>
       <c r="E27">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="F27">
-        <v>1.706984354767786</v>
+        <v>3.281089687906943</v>
       </c>
       <c r="G27">
-        <v>6.048382297727207</v>
+        <v>11.62593244054152</v>
       </c>
       <c r="H27">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I27">
-        <v>19.1020550929649</v>
+        <v>36.71712386132776</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>8.485728365805608</v>
+        <v>16.31089105044072</v>
       </c>
       <c r="C28">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="D28">
-        <v>3.788757694657634</v>
+        <v>7.282582155599405</v>
       </c>
       <c r="E28">
-        <v>1.765247725520927</v>
+        <v>3.393080957438429</v>
       </c>
       <c r="F28">
-        <v>2.53202679290555</v>
+        <v>4.866949703728631</v>
       </c>
       <c r="G28">
-        <v>5.363659773456201</v>
+        <v>10.30978914538587</v>
       </c>
       <c r="H28">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I28">
-        <v>22.50268145610795</v>
+        <v>43.25365717012367</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>12.17419162880912</v>
+        <v>23.40069169369894</v>
       </c>
       <c r="C29">
-        <v>0.3752398869155092</v>
+        <v>0.7212694832328053</v>
       </c>
       <c r="D29">
-        <v>4.198353121107107</v>
+        <v>8.069888334583121</v>
       </c>
       <c r="E29">
-        <v>2.07676203002462</v>
+        <v>3.991859949927563</v>
       </c>
       <c r="F29">
-        <v>2.702725228382328</v>
+        <v>5.195058672519327</v>
       </c>
       <c r="G29">
-        <v>3.651853462778692</v>
+        <v>7.019430907496766</v>
       </c>
       <c r="H29">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="I29">
-        <v>25.45823936729588</v>
+        <v>48.93469962216751</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>13.80345147504379</v>
+        <v>26.53238277538358</v>
       </c>
       <c r="C30">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="D30">
-        <v>4.095954264494739</v>
+        <v>7.873061789837196</v>
       </c>
       <c r="E30">
-        <v>2.388276334528312</v>
+        <v>4.590638942416698</v>
       </c>
       <c r="F30">
-        <v>1.763883833260046</v>
+        <v>3.390459344170508</v>
       </c>
       <c r="G30">
-        <v>2.624769676372185</v>
+        <v>5.045215964763301</v>
       </c>
       <c r="H30">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="I30">
-        <v>25.39322946104567</v>
+        <v>48.80974046105188</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>12.94356433397548</v>
+        <v>24.87954581560556</v>
       </c>
       <c r="C31">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="D31">
-        <v>4.403150834331844</v>
+        <v>8.463541424074984</v>
       </c>
       <c r="E31">
-        <v>3.322819248039391</v>
+        <v>6.386975919884097</v>
       </c>
       <c r="F31">
-        <v>1.365587483814229</v>
+        <v>2.624871750325553</v>
       </c>
       <c r="G31">
-        <v>4.222455566337862</v>
+        <v>8.116216986793138</v>
       </c>
       <c r="H31">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I31">
-        <v>26.68192297597314</v>
+        <v>51.28681003166093</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>8.236813667075307</v>
+        <v>15.83243824629446</v>
       </c>
       <c r="C32">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="D32">
-        <v>4.198353121107107</v>
+        <v>8.069888334583121</v>
       </c>
       <c r="E32">
-        <v>2.803628740533236</v>
+        <v>5.38901093240221</v>
       </c>
       <c r="F32">
-        <v>1.19488904833745</v>
+        <v>2.296762781534859</v>
       </c>
       <c r="G32">
-        <v>4.793057669897035</v>
+        <v>9.213003066089508</v>
       </c>
       <c r="I32">
-        <v>21.47690217156048</v>
+        <v>41.28194968305935</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>5.204580064360772</v>
+        <v>10.00401317760364</v>
       </c>
       <c r="C33">
-        <v>0.3752398869155092</v>
+        <v>0.7212694832328053</v>
       </c>
       <c r="D33">
-        <v>2.150375988859738</v>
+        <v>4.133357439664526</v>
       </c>
       <c r="E33">
-        <v>3.322819248039391</v>
+        <v>6.386975919884097</v>
       </c>
       <c r="F33">
-        <v>0.6543440026609847</v>
+        <v>1.257751047030994</v>
       </c>
       <c r="G33">
-        <v>4.108335145626028</v>
+        <v>7.896859770933863</v>
       </c>
       <c r="I33">
-        <v>15.81569433646242</v>
+        <v>30.40022683834993</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>4.401264445731178</v>
+        <v>8.459915491495254</v>
       </c>
       <c r="C34">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="D34">
-        <v>1.023988566123685</v>
+        <v>1.968265447459299</v>
       </c>
       <c r="E34">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="F34">
-        <v>0.5689947849225954</v>
+        <v>1.093696562635647</v>
       </c>
       <c r="G34">
-        <v>3.537733042066858</v>
+        <v>6.800073691637492</v>
       </c>
       <c r="H34">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I34">
-        <v>10.84507458974638</v>
+        <v>20.84592181621908</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>3.484805782224169</v>
+        <v>6.698339258047656</v>
       </c>
       <c r="C35">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D35">
-        <v>1.126387422736053</v>
+        <v>2.165091992205228</v>
       </c>
       <c r="E35">
-        <v>1.453733421017234</v>
+        <v>2.794301964949294</v>
       </c>
       <c r="F35">
-        <v>0.7396932203993741</v>
+        <v>1.421805531426342</v>
       </c>
       <c r="G35">
-        <v>3.765973883490525</v>
+        <v>7.238788123356039</v>
       </c>
       <c r="H35">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I35">
-        <v>10.90784644690969</v>
+        <v>20.96657909855096</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>1.798974413550789</v>
+        <v>3.457908902693433</v>
       </c>
       <c r="C36">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="D36">
-        <v>0.6143931396742108</v>
+        <v>1.180959268475579</v>
       </c>
       <c r="E36">
-        <v>0.7268667105086168</v>
+        <v>1.397150982474647</v>
       </c>
       <c r="F36">
-        <v>0.3413968709535573</v>
+        <v>0.6562179375813884</v>
       </c>
       <c r="G36">
-        <v>1.825926731389346</v>
+        <v>3.509715453748383</v>
       </c>
       <c r="I36">
-        <v>5.526447800110566</v>
+        <v>10.62269307685923</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>1.097487535310859</v>
+        <v>2.109541909190332</v>
       </c>
       <c r="C37">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="D37">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="E37">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="F37">
-        <v>0.3698466101996871</v>
+        <v>0.7109027657131709</v>
       </c>
       <c r="G37">
-        <v>1.141204207118341</v>
+        <v>2.19357215859274</v>
       </c>
       <c r="H37">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="I37">
-        <v>3.669779290402113</v>
+        <v>7.053887139036396</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.5317723109238183</v>
+        <v>1.022149172494285</v>
       </c>
       <c r="C38">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="D38">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="E38">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="F38">
-        <v>0.2560476532151679</v>
+        <v>0.4921634531860414</v>
       </c>
       <c r="G38">
-        <v>1.255324627830175</v>
+        <v>2.412929374452014</v>
       </c>
       <c r="I38">
-        <v>3.079832718462977</v>
+        <v>5.919917979800095</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.4073149615586692</v>
+        <v>0.7829227704211545</v>
       </c>
       <c r="C39">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="F39">
-        <v>0.1422486962306488</v>
+        <v>0.2734241406589119</v>
       </c>
       <c r="G39">
-        <v>1.255324627830175</v>
+        <v>2.412929374452014</v>
       </c>
       <c r="I39">
-        <v>1.89869825734837</v>
+        <v>3.649593656340282</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.3960006570709285</v>
+        <v>0.7611749156872334</v>
       </c>
       <c r="C40">
-        <v>0.1250799623051697</v>
+        <v>0.2404231610776017</v>
       </c>
       <c r="E40">
-        <v>0.2076762030024619</v>
+        <v>0.3991859949927561</v>
       </c>
       <c r="F40">
-        <v>0.2560476532151679</v>
+        <v>0.4921634531860414</v>
       </c>
       <c r="G40">
-        <v>2.396528834948517</v>
+        <v>4.606501533044754</v>
       </c>
       <c r="I40">
-        <v>3.381333310542245</v>
+        <v>6.499449057988386</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.8712014455560423</v>
+        <v>1.674584814511914</v>
       </c>
       <c r="C41">
-        <v>0.06253998115258487</v>
+        <v>0.1202115805388009</v>
       </c>
       <c r="D41">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="E41">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="F41">
-        <v>0.5120953064303359</v>
+        <v>0.9843269063720828</v>
       </c>
       <c r="G41">
-        <v>4.564816828473363</v>
+        <v>8.77428863437096</v>
       </c>
       <c r="I41">
-        <v>6.835601394066724</v>
+        <v>13.13909010476299</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>1.934746067403679</v>
+        <v>3.718883159500483</v>
       </c>
       <c r="C42">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D42">
-        <v>0.9215897095113162</v>
+        <v>1.771438902713369</v>
       </c>
       <c r="E42">
-        <v>1.453733421017234</v>
+        <v>2.794301964949294</v>
       </c>
       <c r="F42">
-        <v>0.7112434811532443</v>
+        <v>1.36712070329456</v>
       </c>
       <c r="G42">
-        <v>5.82014145630354</v>
+        <v>11.18721800882297</v>
       </c>
       <c r="H42">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I42">
-        <v>11.14071968255817</v>
+        <v>21.41419771318068</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>6.437839253524516</v>
+        <v>12.37452934360103</v>
       </c>
       <c r="C43">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="D43">
-        <v>1.228786279348422</v>
+        <v>2.361918536951157</v>
       </c>
       <c r="E43">
-        <v>4.672714567555394</v>
+        <v>8.981684887337012</v>
       </c>
       <c r="F43">
-        <v>1.849233050998435</v>
+        <v>3.554513828565854</v>
       </c>
       <c r="G43">
-        <v>8.901392815523058</v>
+        <v>17.10986283702337</v>
       </c>
       <c r="I43">
-        <v>23.24631591983129</v>
+        <v>44.68303838482542</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>11.64241931788529</v>
+        <v>22.37854252120467</v>
       </c>
       <c r="C44">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="D44">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="E44">
-        <v>3.738171654044316</v>
+        <v>7.185347909869614</v>
       </c>
       <c r="F44">
-        <v>2.275979139690381</v>
+        <v>4.37478625054259</v>
       </c>
       <c r="G44">
-        <v>8.102549870540223</v>
+        <v>15.57436232600845</v>
       </c>
       <c r="H44">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="I44">
-        <v>29.35364243512323</v>
+        <v>56.42227078847041</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>12.73990685319615</v>
+        <v>24.488084430395</v>
       </c>
       <c r="C45">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="D45">
-        <v>2.867167985146317</v>
+        <v>5.511143252886036</v>
       </c>
       <c r="E45">
-        <v>2.492114436029544</v>
+        <v>4.790231939913074</v>
       </c>
       <c r="F45">
-        <v>1.820783311752305</v>
+        <v>3.499829000434072</v>
       </c>
       <c r="G45">
-        <v>5.934261877015375</v>
+        <v>11.40657522468224</v>
       </c>
       <c r="H45">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I45">
-        <v>26.39022557632542</v>
+        <v>50.72612221557162</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>9.594530205604201</v>
+        <v>18.44218081436498</v>
       </c>
       <c r="C46">
-        <v>0.4690498586443865</v>
+        <v>0.9015868540410066</v>
       </c>
       <c r="D46">
-        <v>2.969566841758686</v>
+        <v>5.707969797631965</v>
       </c>
       <c r="E46">
-        <v>2.284438233027082</v>
+        <v>4.391045944920321</v>
       </c>
       <c r="F46">
-        <v>2.190629921951992</v>
+        <v>4.210731766147243</v>
       </c>
       <c r="G46">
-        <v>8.216670291252056</v>
+        <v>15.79371954186773</v>
       </c>
       <c r="H46">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I46">
-        <v>25.94817655966121</v>
+        <v>49.87643518354043</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>7.263783481129601</v>
+        <v>13.96212273917726</v>
       </c>
       <c r="C47">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="D47">
-        <v>2.867167985146317</v>
+        <v>5.511143252886036</v>
       </c>
       <c r="E47">
-        <v>1.661409624019695</v>
+        <v>3.193487959942049</v>
       </c>
       <c r="F47">
-        <v>2.702725228382328</v>
+        <v>5.195058672519327</v>
       </c>
       <c r="G47">
-        <v>8.102549870540223</v>
+        <v>15.57436232600845</v>
       </c>
       <c r="H47">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="I47">
-        <v>23.1894501042596</v>
+        <v>44.57373343393611</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>7.060126000350265</v>
+        <v>13.57066135396667</v>
       </c>
       <c r="C48">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="D48">
-        <v>2.252774845472106</v>
+        <v>4.330183984410456</v>
       </c>
       <c r="E48">
-        <v>1.765247725520927</v>
+        <v>3.393080957438429</v>
       </c>
       <c r="F48">
-        <v>2.58892627139781</v>
+        <v>4.976319359992197</v>
       </c>
       <c r="G48">
-        <v>5.82014145630354</v>
+        <v>11.18721800882297</v>
       </c>
       <c r="H48">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="I48">
-        <v>19.9293974405015</v>
+        <v>38.30740466108372</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>7.28641209010508</v>
+        <v>14.0056184486451</v>
       </c>
       <c r="C49">
-        <v>0.500319849220679</v>
+        <v>0.9616926443104069</v>
       </c>
       <c r="D49">
-        <v>2.252774845472106</v>
+        <v>4.330183984410456</v>
       </c>
       <c r="E49">
-        <v>1.349895319516003</v>
+        <v>2.594708967452916</v>
       </c>
       <c r="F49">
-        <v>2.133730443459733</v>
+        <v>4.101362109883679</v>
       </c>
       <c r="G49">
-        <v>4.678937249185199</v>
+        <v>8.99364585023023</v>
       </c>
       <c r="H49">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="I49">
-        <v>18.3137154006702</v>
+        <v>35.20181223721638</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>6.493665522374215</v>
+        <v>3.785454630097216</v>
       </c>
       <c r="C2">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="D2">
-        <v>1.423773323676165</v>
+        <v>0.8299825886856407</v>
       </c>
       <c r="E2">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="F2">
-        <v>2.307495317897172</v>
+        <v>1.345144557409825</v>
       </c>
       <c r="G2">
-        <v>5.02471529038393</v>
+        <v>2.929136355324585</v>
       </c>
       <c r="H2">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I2">
-        <v>16.56411520660954</v>
+        <v>9.655980337496413</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>6.44996656192755</v>
+        <v>3.759980507418231</v>
       </c>
       <c r="C3">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="D3">
-        <v>3.00574368331635</v>
+        <v>1.752185465003019</v>
       </c>
       <c r="E3">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="F3">
-        <v>1.867972400202473</v>
+        <v>1.08892654647462</v>
       </c>
       <c r="G3">
-        <v>4.319492091733554</v>
+        <v>2.518029498436925</v>
       </c>
       <c r="H3">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="I3">
-        <v>16.97660643350016</v>
+        <v>9.896440339528777</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>6.834517413858191</v>
+        <v>3.984152786993302</v>
       </c>
       <c r="C4">
-        <v>0.4830932675858352</v>
+        <v>0.2816171606391846</v>
       </c>
       <c r="D4">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="E4">
-        <v>1.203154050328635</v>
+        <v>0.7013735239125063</v>
       </c>
       <c r="F4">
-        <v>1.692163233124593</v>
+        <v>0.9864393421005379</v>
       </c>
       <c r="G4">
-        <v>3.966880492408366</v>
+        <v>2.312476069993094</v>
       </c>
       <c r="H4">
-        <v>0.3018442519502926</v>
+        <v>0.1759588197415659</v>
       </c>
       <c r="I4">
-        <v>16.85460824871619</v>
+        <v>9.825322017856259</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>8.975766475744706</v>
+        <v>5.232384798263581</v>
       </c>
       <c r="C5">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="D5">
-        <v>3.87582738111845</v>
+        <v>2.259397046977577</v>
       </c>
       <c r="E5">
-        <v>1.684415670460089</v>
+        <v>0.9819229334775083</v>
       </c>
       <c r="F5">
-        <v>1.758091670778798</v>
+        <v>1.024872043740819</v>
       </c>
       <c r="G5">
-        <v>2.291975395613722</v>
+        <v>1.336097284884899</v>
       </c>
       <c r="H5">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="I5">
-        <v>18.88452105963522</v>
+        <v>11.00865103631448</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>11.6151836867232</v>
+        <v>6.771021808074294</v>
       </c>
       <c r="C6">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="D6">
-        <v>3.322137755244387</v>
+        <v>1.936626040266495</v>
       </c>
       <c r="E6">
-        <v>2.005256750547724</v>
+        <v>1.16895587318751</v>
       </c>
       <c r="F6">
-        <v>1.472401774277243</v>
+        <v>0.8583303366329355</v>
       </c>
       <c r="G6">
-        <v>2.468281195276317</v>
+        <v>1.438873999106814</v>
       </c>
       <c r="H6">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="I6">
-        <v>21.13339630122973</v>
+        <v>12.31962327017423</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>9.849745684677977</v>
+        <v>5.741867251843286</v>
       </c>
       <c r="C7">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="D7">
-        <v>1.97746294955023</v>
+        <v>1.152753595396723</v>
       </c>
       <c r="E7">
-        <v>2.486518370679177</v>
+        <v>1.449505282752513</v>
       </c>
       <c r="F7">
-        <v>1.032878856582544</v>
+        <v>0.6021123256977309</v>
       </c>
       <c r="G7">
-        <v>2.291975395613722</v>
+        <v>1.336097284884899</v>
       </c>
       <c r="H7">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="I7">
-        <v>17.97495761110746</v>
+        <v>10.47842490197892</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>6.974354087287513</v>
+        <v>4.065669979566057</v>
       </c>
       <c r="C8">
-        <v>0.2898559605515012</v>
+        <v>0.1689702963835108</v>
       </c>
       <c r="D8">
-        <v>1.344674805694156</v>
+        <v>0.7838724448697716</v>
       </c>
       <c r="E8">
-        <v>1.52399513041627</v>
+        <v>0.8884064636225077</v>
       </c>
       <c r="F8">
-        <v>0.5933559388878443</v>
+        <v>0.3458943147625262</v>
       </c>
       <c r="G8">
-        <v>3.79057469274577</v>
+        <v>2.209699355771179</v>
       </c>
       <c r="H8">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I8">
-        <v>14.603051830426</v>
+        <v>8.512786803473142</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>4.334936876309031</v>
+        <v>2.527032969755342</v>
       </c>
       <c r="C9">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D9">
-        <v>1.423773323676165</v>
+        <v>0.8299825886856407</v>
       </c>
       <c r="E9">
-        <v>2.326097830635361</v>
+        <v>1.355988812897512</v>
       </c>
       <c r="F9">
-        <v>0.6153320847725794</v>
+        <v>0.3587052153092865</v>
       </c>
       <c r="G9">
-        <v>4.055033392239663</v>
+        <v>2.36386442710405</v>
       </c>
       <c r="H9">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I9">
-        <v>12.94322209533002</v>
+        <v>7.545196136192382</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>3.522136212001088</v>
+        <v>2.053214287926216</v>
       </c>
       <c r="C10">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="D10">
-        <v>0.6327881438560735</v>
+        <v>0.3688811505269514</v>
       </c>
       <c r="E10">
-        <v>0.6416821601752717</v>
+        <v>0.3740658794200033</v>
       </c>
       <c r="F10">
-        <v>0.3735944800404946</v>
+        <v>0.217785309294924</v>
       </c>
       <c r="G10">
-        <v>2.468281195276317</v>
+        <v>1.438873999106814</v>
       </c>
       <c r="I10">
-        <v>7.904183488521454</v>
+        <v>4.60771006462646</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>2.316044903673172</v>
+        <v>1.350128501986221</v>
       </c>
       <c r="C11">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="D11">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="E11">
-        <v>1.042733510284816</v>
+        <v>0.6078570540575055</v>
       </c>
       <c r="F11">
-        <v>0.2637137506168197</v>
+        <v>0.1537308065611228</v>
       </c>
       <c r="G11">
-        <v>2.64458699493891</v>
+        <v>1.541650713328729</v>
       </c>
       <c r="I11">
-        <v>6.576838703597621</v>
+        <v>3.833940081477063</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>1.310968813399908</v>
+        <v>0.7642236803695591</v>
       </c>
       <c r="C12">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D12">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="E12">
-        <v>0.6416821601752717</v>
+        <v>0.3740658794200033</v>
       </c>
       <c r="F12">
-        <v>0.1318568753084098</v>
+        <v>0.07686540328056141</v>
       </c>
       <c r="G12">
-        <v>0.793376098481673</v>
+        <v>0.4624952139986188</v>
       </c>
       <c r="H12">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I12">
-        <v>3.296593561164377</v>
+        <v>1.921735161236909</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.795321080129278</v>
+        <v>0.4636290327575324</v>
       </c>
       <c r="C13">
-        <v>0.09661865351716704</v>
+        <v>0.05632343212783691</v>
       </c>
       <c r="D13">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="E13">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="F13">
-        <v>0.1318568753084098</v>
+        <v>0.07686540328056141</v>
       </c>
       <c r="G13">
-        <v>0.7052231986503761</v>
+        <v>0.4111068568876611</v>
       </c>
       <c r="I13">
-        <v>2.288268193678794</v>
+        <v>1.333936187322832</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.4632089807346346</v>
+        <v>0.2700257003972442</v>
       </c>
       <c r="C14">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D14">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="E14">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="F14">
-        <v>0.1977853129626147</v>
+        <v>0.1152981049208421</v>
       </c>
       <c r="G14">
-        <v>1.322293497469455</v>
+        <v>0.7708253566643645</v>
       </c>
       <c r="I14">
-        <v>2.686352405476118</v>
+        <v>1.565997681331815</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.218494802233318</v>
+        <v>0.1273706133949265</v>
       </c>
       <c r="C15">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="D15">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="E15">
-        <v>0.08021027002190896</v>
+        <v>0.04675823492750041</v>
       </c>
       <c r="F15">
-        <v>0.1977853129626147</v>
+        <v>0.1152981049208421</v>
       </c>
       <c r="G15">
-        <v>0.6170702988190792</v>
+        <v>0.3597184997767034</v>
       </c>
       <c r="I15">
-        <v>1.471629554879407</v>
+        <v>0.8578801746273754</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1223570892506581</v>
+        <v>0.07132754350115883</v>
       </c>
       <c r="C16">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="D16">
-        <v>0.07909851798200919</v>
+        <v>0.04611014381586892</v>
       </c>
       <c r="F16">
-        <v>0.06592843765420492</v>
+        <v>0.0384327016402807</v>
       </c>
       <c r="G16">
-        <v>1.057834797975564</v>
+        <v>0.6166602853314914</v>
       </c>
       <c r="I16">
-        <v>1.397682833000311</v>
+        <v>0.8147732483846776</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.5943058620746251</v>
+        <v>0.3464480684342003</v>
       </c>
       <c r="D17">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="E17">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="F17">
-        <v>0.1758091670778798</v>
+        <v>0.1024872043740819</v>
       </c>
       <c r="G17">
-        <v>2.203822495782425</v>
+        <v>1.284708927773941</v>
       </c>
       <c r="I17">
-        <v>3.452975640986584</v>
+        <v>2.012897427923962</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>1.433325902650566</v>
+        <v>0.8355512238707173</v>
       </c>
       <c r="C18">
-        <v>0.09661865351716704</v>
+        <v>0.05632343212783691</v>
       </c>
       <c r="D18">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="E18">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="F18">
-        <v>0.5713797930031094</v>
+        <v>0.3330834142157661</v>
       </c>
       <c r="G18">
-        <v>4.936562390552633</v>
+        <v>2.877747998213628</v>
       </c>
       <c r="I18">
-        <v>8.316804051914421</v>
+        <v>4.848245462821429</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>4.527212302274351</v>
+        <v>2.639119109542877</v>
       </c>
       <c r="C19">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="D19">
-        <v>0.7909851798200916</v>
+        <v>0.4611014381586891</v>
       </c>
       <c r="E19">
-        <v>3.368831340920177</v>
+        <v>1.963845866955017</v>
       </c>
       <c r="F19">
-        <v>1.142759586006219</v>
+        <v>0.6661668284315322</v>
       </c>
       <c r="G19">
-        <v>7.052231986503761</v>
+        <v>4.11106856887661</v>
       </c>
       <c r="H19">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="I19">
-        <v>17.08384620792689</v>
+        <v>9.958955308806988</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>9.141822525442025</v>
+        <v>5.329186464443726</v>
       </c>
       <c r="C20">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D20">
-        <v>2.610251093406303</v>
+        <v>1.521634745923674</v>
       </c>
       <c r="E20">
-        <v>2.807359450766813</v>
+        <v>1.636538222462514</v>
       </c>
       <c r="F20">
-        <v>1.889948546087208</v>
+        <v>1.10173744702138</v>
       </c>
       <c r="G20">
-        <v>5.112868190215226</v>
+        <v>2.980524712435543</v>
       </c>
       <c r="H20">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="I20">
-        <v>21.96590143072215</v>
+        <v>12.80492858597136</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>10.0420211106433</v>
+        <v>5.853953391630822</v>
       </c>
       <c r="C21">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="D21">
-        <v>1.581970359640183</v>
+        <v>0.9222028763173782</v>
       </c>
       <c r="E21">
-        <v>2.085467020569633</v>
+        <v>1.215714108115011</v>
       </c>
       <c r="F21">
-        <v>1.648210941355123</v>
+        <v>0.9608175410070174</v>
       </c>
       <c r="G21">
-        <v>4.760256590890038</v>
+        <v>2.774971283991712</v>
       </c>
       <c r="H21">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="I21">
-        <v>20.64235096479931</v>
+        <v>12.03337048490626</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>7.848333296220788</v>
+        <v>4.575152433145759</v>
       </c>
       <c r="C22">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="D22">
-        <v>2.214758503496257</v>
+        <v>1.29108402684433</v>
       </c>
       <c r="E22">
-        <v>2.085467020569633</v>
+        <v>1.215714108115011</v>
       </c>
       <c r="F22">
-        <v>1.933900837856678</v>
+        <v>1.127359248114901</v>
       </c>
       <c r="G22">
-        <v>5.994397188528197</v>
+        <v>3.494408283545121</v>
       </c>
       <c r="H22">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="I22">
-        <v>20.46154252743395</v>
+        <v>11.92796897723281</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>5.532288392547611</v>
+        <v>3.225023931159537</v>
       </c>
       <c r="C23">
-        <v>0.41062927744796</v>
+        <v>0.2393745865433069</v>
       </c>
       <c r="D23">
-        <v>1.819265913586211</v>
+        <v>1.060533307764985</v>
       </c>
       <c r="E23">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="F23">
-        <v>2.373423755551377</v>
+        <v>1.383577259050105</v>
       </c>
       <c r="G23">
-        <v>5.9062442886969</v>
+        <v>3.443019926434161</v>
       </c>
       <c r="H23">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="I23">
-        <v>17.10267797257797</v>
+        <v>9.969933205719871</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>5.637165897619608</v>
+        <v>3.286161825589103</v>
       </c>
       <c r="C24">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D24">
-        <v>2.135659985514248</v>
+        <v>1.244973883028461</v>
       </c>
       <c r="E24">
-        <v>1.203154050328635</v>
+        <v>0.7013735239125063</v>
       </c>
       <c r="F24">
-        <v>2.197614588473497</v>
+        <v>1.281090054676023</v>
       </c>
       <c r="G24">
-        <v>5.28917398987782</v>
+        <v>3.083301426657458</v>
       </c>
       <c r="H24">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="I24">
-        <v>16.73705831435397</v>
+        <v>9.756796784801692</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>5.305053798224964</v>
+        <v>3.092558493228816</v>
       </c>
       <c r="C25">
-        <v>0.3140106239307929</v>
+        <v>0.1830511544154699</v>
       </c>
       <c r="D25">
-        <v>1.423773323676165</v>
+        <v>0.8299825886856407</v>
       </c>
       <c r="E25">
-        <v>1.042733510284816</v>
+        <v>0.6078570540575055</v>
       </c>
       <c r="F25">
-        <v>1.384497190738303</v>
+        <v>0.8070867344458946</v>
       </c>
       <c r="G25">
-        <v>3.878727592577069</v>
+        <v>2.261087712882136</v>
       </c>
       <c r="H25">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I25">
-        <v>13.43503725427505</v>
+        <v>7.831897686213053</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>6.135334046711568</v>
+        <v>3.576566824129535</v>
       </c>
       <c r="C26">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="D26">
-        <v>2.214758503496257</v>
+        <v>1.29108402684433</v>
       </c>
       <c r="E26">
-        <v>0.8823129702409986</v>
+        <v>0.5143405842025045</v>
       </c>
       <c r="F26">
-        <v>2.153662296704028</v>
+        <v>1.255468253582503</v>
       </c>
       <c r="G26">
-        <v>4.319492091733554</v>
+        <v>2.518029498436925</v>
       </c>
       <c r="H26">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="I26">
-        <v>16.0902455896488</v>
+        <v>9.379740064663487</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>5.943058620746253</v>
+        <v>3.464480684342003</v>
       </c>
       <c r="C27">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="D27">
-        <v>1.740167395604202</v>
+        <v>1.014423163949116</v>
       </c>
       <c r="E27">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="F27">
-        <v>1.318568753084099</v>
+        <v>0.7686540328056138</v>
       </c>
       <c r="G27">
-        <v>4.672103691058742</v>
+        <v>2.723582926880754</v>
       </c>
       <c r="H27">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I27">
-        <v>14.75547968258966</v>
+        <v>8.601643970005755</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>6.554844066999542</v>
+        <v>3.821118401847794</v>
       </c>
       <c r="C28">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="D28">
-        <v>2.926645165334339</v>
+        <v>1.70607532118715</v>
       </c>
       <c r="E28">
-        <v>1.363574590372453</v>
+        <v>0.7948899937675069</v>
       </c>
       <c r="F28">
-        <v>1.955876983741413</v>
+        <v>1.140170148661661</v>
       </c>
       <c r="G28">
-        <v>4.143186292070959</v>
+        <v>2.415252784215009</v>
       </c>
       <c r="H28">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I28">
-        <v>17.38231082537679</v>
+        <v>10.13294398502585</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>9.404016288122008</v>
+        <v>5.482031200517636</v>
       </c>
       <c r="C29">
-        <v>0.2898559605515012</v>
+        <v>0.1689702963835108</v>
       </c>
       <c r="D29">
-        <v>3.243039237262377</v>
+        <v>1.890515896450625</v>
       </c>
       <c r="E29">
-        <v>1.604205400438179</v>
+        <v>0.9351646985500084</v>
       </c>
       <c r="F29">
-        <v>2.087733859049822</v>
+        <v>1.217035551942222</v>
       </c>
       <c r="G29">
-        <v>2.820892794601504</v>
+        <v>1.644427427550645</v>
       </c>
       <c r="H29">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="I29">
-        <v>19.66534657713274</v>
+        <v>11.46382994263862</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>10.66254634898592</v>
+        <v>6.215685933672413</v>
       </c>
       <c r="C30">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="D30">
-        <v>3.163940719280367</v>
+        <v>1.844405752634756</v>
       </c>
       <c r="E30">
-        <v>1.844836210503906</v>
+        <v>1.07543940333251</v>
       </c>
       <c r="F30">
-        <v>1.362521044853569</v>
+        <v>0.7942758338991347</v>
       </c>
       <c r="G30">
-        <v>2.027516696119831</v>
+        <v>1.181932213552025</v>
       </c>
       <c r="H30">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="I30">
-        <v>19.61512934416103</v>
+        <v>11.43455602078225</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>9.998322150196639</v>
+        <v>5.828479268951837</v>
       </c>
       <c r="C31">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="D31">
-        <v>3.401236273226395</v>
+        <v>1.982736184082363</v>
       </c>
       <c r="E31">
-        <v>2.566728640701087</v>
+        <v>1.496263517680013</v>
       </c>
       <c r="F31">
-        <v>1.054855002467279</v>
+        <v>0.6149232262444913</v>
       </c>
       <c r="G31">
-        <v>3.261657293757989</v>
+        <v>1.901369213105432</v>
       </c>
       <c r="H31">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I31">
-        <v>20.61058720898524</v>
+        <v>12.01485393888132</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>6.362568641034224</v>
+        <v>3.709032262060259</v>
       </c>
       <c r="C32">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="D32">
-        <v>3.243039237262377</v>
+        <v>1.890515896450625</v>
       </c>
       <c r="E32">
-        <v>2.165677290591542</v>
+        <v>1.262472343042511</v>
       </c>
       <c r="F32">
-        <v>0.9229981271588689</v>
+        <v>0.5380578229639297</v>
       </c>
       <c r="G32">
-        <v>3.702421792914473</v>
+        <v>2.158310998660221</v>
       </c>
       <c r="I32">
-        <v>16.58994239599582</v>
+        <v>9.671036187433222</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>4.020304361093053</v>
+        <v>2.343619286466648</v>
       </c>
       <c r="C33">
-        <v>0.2898559605515012</v>
+        <v>0.1689702963835108</v>
       </c>
       <c r="D33">
-        <v>1.661068877622193</v>
+        <v>0.9683130201332473</v>
       </c>
       <c r="E33">
-        <v>2.566728640701087</v>
+        <v>1.496263517680013</v>
       </c>
       <c r="F33">
-        <v>0.5054513553489044</v>
+        <v>0.2946507125754854</v>
       </c>
       <c r="G33">
-        <v>3.173504393926692</v>
+        <v>1.849980855994475</v>
       </c>
       <c r="I33">
-        <v>12.21691358924343</v>
+        <v>7.121797689233381</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>3.399779122750429</v>
+        <v>1.981886744425057</v>
       </c>
       <c r="C34">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="D34">
-        <v>0.7909851798200916</v>
+        <v>0.4611014381586891</v>
       </c>
       <c r="E34">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="F34">
-        <v>0.4395229176946996</v>
+        <v>0.2562180109352046</v>
       </c>
       <c r="G34">
-        <v>2.732739894770208</v>
+        <v>1.593039070439687</v>
       </c>
       <c r="H34">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I34">
-        <v>8.377333066331031</v>
+        <v>4.883530593706151</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>2.691855963514479</v>
+        <v>1.569205957025494</v>
       </c>
       <c r="C35">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D35">
-        <v>0.870083697802101</v>
+        <v>0.5072115819745582</v>
       </c>
       <c r="E35">
-        <v>1.122943780306726</v>
+        <v>0.6546152889850058</v>
       </c>
       <c r="F35">
-        <v>0.5713797930031094</v>
+        <v>0.3330834142157661</v>
       </c>
       <c r="G35">
-        <v>2.909045694432801</v>
+        <v>1.695815784661602</v>
       </c>
       <c r="H35">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I35">
-        <v>8.425821506894312</v>
+        <v>4.911796723398854</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>1.389626942203903</v>
+        <v>0.8100771011917325</v>
       </c>
       <c r="C36">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="D36">
-        <v>0.4745911078920552</v>
+        <v>0.2766608628952135</v>
       </c>
       <c r="E36">
-        <v>0.5614718901533629</v>
+        <v>0.3273076444925029</v>
       </c>
       <c r="F36">
-        <v>0.2637137506168197</v>
+        <v>0.1537308065611228</v>
       </c>
       <c r="G36">
-        <v>1.410446397300752</v>
+        <v>0.8222137137753223</v>
       </c>
       <c r="I36">
-        <v>4.268932731821936</v>
+        <v>2.488556135139609</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.8477598326652742</v>
+        <v>0.4941979799723148</v>
       </c>
       <c r="C37">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="D37">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="E37">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="F37">
-        <v>0.2856898965015547</v>
+        <v>0.166541707107883</v>
       </c>
       <c r="G37">
-        <v>0.8815289983129702</v>
+        <v>0.5138835711095763</v>
       </c>
       <c r="H37">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="I37">
-        <v>2.834739691388458</v>
+        <v>1.652499416995442</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.4107702281986378</v>
+        <v>0.2394567531824619</v>
       </c>
       <c r="C38">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="D38">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="E38">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="F38">
-        <v>0.1977853129626147</v>
+        <v>0.1152981049208421</v>
       </c>
       <c r="G38">
-        <v>0.9696818981442672</v>
+        <v>0.5652719282205341</v>
       </c>
       <c r="I38">
-        <v>2.379032459172</v>
+        <v>1.38684682891267</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.3146325152159781</v>
+        <v>0.1834136832886943</v>
       </c>
       <c r="C39">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="F39">
-        <v>0.1098807294236749</v>
+        <v>0.06405450273380116</v>
       </c>
       <c r="G39">
-        <v>0.9696818981442672</v>
+        <v>0.5652719282205341</v>
       </c>
       <c r="I39">
-        <v>1.466659132921796</v>
+        <v>0.8549826883389072</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.3058927231266453</v>
+        <v>0.1783188587528971</v>
       </c>
       <c r="C40">
-        <v>0.09661865351716704</v>
+        <v>0.05632343212783691</v>
       </c>
       <c r="E40">
-        <v>0.1604205400438179</v>
+        <v>0.09351646985500082</v>
       </c>
       <c r="F40">
-        <v>0.1977853129626147</v>
+        <v>0.1152981049208421</v>
       </c>
       <c r="G40">
-        <v>1.851210896457237</v>
+        <v>1.07915549933011</v>
       </c>
       <c r="I40">
-        <v>2.611928126107482</v>
+        <v>1.522612364986687</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.6729639908786197</v>
+        <v>0.3923014892563735</v>
       </c>
       <c r="C41">
-        <v>0.04830932675858352</v>
+        <v>0.02816171606391845</v>
       </c>
       <c r="D41">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="E41">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="F41">
-        <v>0.3955706259252295</v>
+        <v>0.2305962098416842</v>
       </c>
       <c r="G41">
-        <v>3.526115993251881</v>
+        <v>2.055534284438305</v>
       </c>
       <c r="I41">
-        <v>5.280195088829986</v>
+        <v>3.078067214573759</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>1.494504447275895</v>
+        <v>0.8712149956212977</v>
       </c>
       <c r="C42">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D42">
-        <v>0.7118866618380826</v>
+        <v>0.4149912943428203</v>
       </c>
       <c r="E42">
-        <v>1.122943780306726</v>
+        <v>0.6546152889850058</v>
       </c>
       <c r="F42">
-        <v>0.5494036471183743</v>
+        <v>0.3202725136690058</v>
       </c>
       <c r="G42">
-        <v>4.495797891396149</v>
+        <v>2.62080621265884</v>
       </c>
       <c r="H42">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I42">
-        <v>8.60570562305392</v>
+        <v>5.016659401966315</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>4.972941698830319</v>
+        <v>2.898955160868526</v>
       </c>
       <c r="C43">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="D43">
-        <v>0.9491822157841104</v>
+        <v>0.553321725790427</v>
       </c>
       <c r="E43">
-        <v>3.609462150985903</v>
+        <v>2.104120571737519</v>
       </c>
       <c r="F43">
-        <v>1.428449482507773</v>
+        <v>0.832708535539415</v>
       </c>
       <c r="G43">
-        <v>6.875926186841166</v>
+        <v>4.008291854654696</v>
       </c>
       <c r="I43">
-        <v>17.95673505184573</v>
+        <v>10.46780213875038</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>8.993246059923372</v>
+        <v>5.242574447335175</v>
       </c>
       <c r="C44">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="D44">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="E44">
-        <v>2.887569720788723</v>
+        <v>1.683296457390015</v>
       </c>
       <c r="F44">
-        <v>1.758091670778798</v>
+        <v>1.024872043740819</v>
       </c>
       <c r="G44">
-        <v>6.258855888022087</v>
+        <v>3.648573354877993</v>
       </c>
       <c r="H44">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="I44">
-        <v>22.67437050377783</v>
+        <v>13.2179276115046</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>9.841005892588644</v>
+        <v>5.736772427307488</v>
       </c>
       <c r="C45">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="D45">
-        <v>2.214758503496257</v>
+        <v>1.29108402684433</v>
       </c>
       <c r="E45">
-        <v>1.925046480525815</v>
+        <v>1.12219763826001</v>
       </c>
       <c r="F45">
-        <v>1.406473336623038</v>
+        <v>0.8198976349926549</v>
       </c>
       <c r="G45">
-        <v>4.583950791227444</v>
+        <v>2.672194569769798</v>
       </c>
       <c r="H45">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I45">
-        <v>20.38526406794</v>
+        <v>11.88350277448905</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>7.411343691754153</v>
+        <v>4.320411206355907</v>
       </c>
       <c r="C46">
-        <v>0.3623199506893765</v>
+        <v>0.2112128704793884</v>
       </c>
       <c r="D46">
-        <v>2.293857021478267</v>
+        <v>1.337194170660199</v>
       </c>
       <c r="E46">
-        <v>1.764625940481997</v>
+        <v>1.028681168405009</v>
       </c>
       <c r="F46">
-        <v>1.692163233124593</v>
+        <v>0.9864393421005379</v>
       </c>
       <c r="G46">
-        <v>6.347008787853384</v>
+        <v>3.699961711988951</v>
       </c>
       <c r="H46">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I46">
-        <v>20.04380105506765</v>
+        <v>11.68444836698517</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>5.61094652135161</v>
+        <v>3.270877351981713</v>
       </c>
       <c r="C47">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="D47">
-        <v>2.214758503496257</v>
+        <v>1.29108402684433</v>
       </c>
       <c r="E47">
-        <v>1.283364320350543</v>
+        <v>0.7481317588400066</v>
       </c>
       <c r="F47">
-        <v>2.087733859049822</v>
+        <v>1.217035551942222</v>
       </c>
       <c r="G47">
-        <v>6.258855888022087</v>
+        <v>3.648573354877993</v>
       </c>
       <c r="H47">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="I47">
-        <v>17.91280876317059</v>
+        <v>10.44219549604983</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>5.453630263743621</v>
+        <v>3.179170510337365</v>
       </c>
       <c r="C48">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="D48">
-        <v>1.740167395604202</v>
+        <v>1.014423163949116</v>
       </c>
       <c r="E48">
-        <v>1.363574590372453</v>
+        <v>0.7948899937675069</v>
       </c>
       <c r="F48">
-        <v>1.999829275510883</v>
+        <v>1.165791949755181</v>
       </c>
       <c r="G48">
-        <v>4.495797891396149</v>
+        <v>2.62080621265884</v>
       </c>
       <c r="H48">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="I48">
-        <v>15.39456448996823</v>
+        <v>8.974195733686905</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>5.628426105530274</v>
+        <v>3.281067001053306</v>
       </c>
       <c r="C49">
-        <v>0.3864746140686682</v>
+        <v>0.2252937285113476</v>
       </c>
       <c r="D49">
-        <v>1.740167395604202</v>
+        <v>1.014423163949116</v>
       </c>
       <c r="E49">
-        <v>1.042733510284816</v>
+        <v>0.6078570540575055</v>
       </c>
       <c r="F49">
-        <v>1.648210941355123</v>
+        <v>0.9608175410070174</v>
       </c>
       <c r="G49">
-        <v>3.614268893083176</v>
+        <v>2.106922641549263</v>
       </c>
       <c r="H49">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="I49">
-        <v>14.1465226747692</v>
+        <v>8.246655078625146</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>3.785454630097216</v>
+        <v>6.493665522374215</v>
       </c>
       <c r="C2">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="D2">
-        <v>0.8299825886856407</v>
+        <v>1.423773323676165</v>
       </c>
       <c r="E2">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="F2">
-        <v>1.345144557409825</v>
+        <v>2.307495317897172</v>
       </c>
       <c r="G2">
-        <v>2.929136355324585</v>
+        <v>5.02471529038393</v>
       </c>
       <c r="H2">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I2">
-        <v>9.655980337496413</v>
+        <v>16.56411520660954</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>3.759980507418231</v>
+        <v>6.44996656192755</v>
       </c>
       <c r="C3">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="D3">
-        <v>1.752185465003019</v>
+        <v>3.00574368331635</v>
       </c>
       <c r="E3">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="F3">
-        <v>1.08892654647462</v>
+        <v>1.867972400202473</v>
       </c>
       <c r="G3">
-        <v>2.518029498436925</v>
+        <v>4.319492091733554</v>
       </c>
       <c r="H3">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="I3">
-        <v>9.896440339528777</v>
+        <v>16.97660643350016</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>3.984152786993302</v>
+        <v>6.834517413858191</v>
       </c>
       <c r="C4">
-        <v>0.2816171606391846</v>
+        <v>0.4830932675858352</v>
       </c>
       <c r="D4">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="E4">
-        <v>0.7013735239125063</v>
+        <v>1.203154050328635</v>
       </c>
       <c r="F4">
-        <v>0.9864393421005379</v>
+        <v>1.692163233124593</v>
       </c>
       <c r="G4">
-        <v>2.312476069993094</v>
+        <v>3.966880492408366</v>
       </c>
       <c r="H4">
-        <v>0.1759588197415659</v>
+        <v>0.3018442519502926</v>
       </c>
       <c r="I4">
-        <v>9.825322017856259</v>
+        <v>16.85460824871619</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>5.232384798263581</v>
+        <v>8.975766475744706</v>
       </c>
       <c r="C5">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="D5">
-        <v>2.259397046977577</v>
+        <v>3.87582738111845</v>
       </c>
       <c r="E5">
-        <v>0.9819229334775083</v>
+        <v>1.684415670460089</v>
       </c>
       <c r="F5">
-        <v>1.024872043740819</v>
+        <v>1.758091670778798</v>
       </c>
       <c r="G5">
-        <v>1.336097284884899</v>
+        <v>2.291975395613722</v>
       </c>
       <c r="H5">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="I5">
-        <v>11.00865103631448</v>
+        <v>18.88452105963522</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>6.771021808074294</v>
+        <v>11.6151836867232</v>
       </c>
       <c r="C6">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="D6">
-        <v>1.936626040266495</v>
+        <v>3.322137755244387</v>
       </c>
       <c r="E6">
-        <v>1.16895587318751</v>
+        <v>2.005256750547724</v>
       </c>
       <c r="F6">
-        <v>0.8583303366329355</v>
+        <v>1.472401774277243</v>
       </c>
       <c r="G6">
-        <v>1.438873999106814</v>
+        <v>2.468281195276317</v>
       </c>
       <c r="H6">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="I6">
-        <v>12.31962327017423</v>
+        <v>21.13339630122973</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>5.741867251843286</v>
+        <v>9.849745684677977</v>
       </c>
       <c r="C7">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="D7">
-        <v>1.152753595396723</v>
+        <v>1.97746294955023</v>
       </c>
       <c r="E7">
-        <v>1.449505282752513</v>
+        <v>2.486518370679177</v>
       </c>
       <c r="F7">
-        <v>0.6021123256977309</v>
+        <v>1.032878856582544</v>
       </c>
       <c r="G7">
-        <v>1.336097284884899</v>
+        <v>2.291975395613722</v>
       </c>
       <c r="H7">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="I7">
-        <v>10.47842490197892</v>
+        <v>17.97495761110746</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>4.065669979566057</v>
+        <v>6.974354087287513</v>
       </c>
       <c r="C8">
-        <v>0.1689702963835108</v>
+        <v>0.2898559605515012</v>
       </c>
       <c r="D8">
-        <v>0.7838724448697716</v>
+        <v>1.344674805694156</v>
       </c>
       <c r="E8">
-        <v>0.8884064636225077</v>
+        <v>1.52399513041627</v>
       </c>
       <c r="F8">
-        <v>0.3458943147625262</v>
+        <v>0.5933559388878443</v>
       </c>
       <c r="G8">
-        <v>2.209699355771179</v>
+        <v>3.79057469274577</v>
       </c>
       <c r="H8">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I8">
-        <v>8.512786803473142</v>
+        <v>14.603051830426</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>2.527032969755342</v>
+        <v>4.334936876309031</v>
       </c>
       <c r="C9">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D9">
-        <v>0.8299825886856407</v>
+        <v>1.423773323676165</v>
       </c>
       <c r="E9">
-        <v>1.355988812897512</v>
+        <v>2.326097830635361</v>
       </c>
       <c r="F9">
-        <v>0.3587052153092865</v>
+        <v>0.6153320847725794</v>
       </c>
       <c r="G9">
-        <v>2.36386442710405</v>
+        <v>4.055033392239663</v>
       </c>
       <c r="H9">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I9">
-        <v>7.545196136192382</v>
+        <v>12.94322209533002</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>2.053214287926216</v>
+        <v>3.522136212001088</v>
       </c>
       <c r="C10">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="D10">
-        <v>0.3688811505269514</v>
+        <v>0.6327881438560735</v>
       </c>
       <c r="E10">
-        <v>0.3740658794200033</v>
+        <v>0.6416821601752717</v>
       </c>
       <c r="F10">
-        <v>0.217785309294924</v>
+        <v>0.3735944800404946</v>
       </c>
       <c r="G10">
-        <v>1.438873999106814</v>
+        <v>2.468281195276317</v>
       </c>
       <c r="I10">
-        <v>4.60771006462646</v>
+        <v>7.904183488521454</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>1.350128501986221</v>
+        <v>2.316044903673172</v>
       </c>
       <c r="C11">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="D11">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="E11">
-        <v>0.6078570540575055</v>
+        <v>1.042733510284816</v>
       </c>
       <c r="F11">
-        <v>0.1537308065611228</v>
+        <v>0.2637137506168197</v>
       </c>
       <c r="G11">
-        <v>1.541650713328729</v>
+        <v>2.64458699493891</v>
       </c>
       <c r="I11">
-        <v>3.833940081477063</v>
+        <v>6.576838703597621</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.7642236803695591</v>
+        <v>1.310968813399908</v>
       </c>
       <c r="C12">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D12">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="E12">
-        <v>0.3740658794200033</v>
+        <v>0.6416821601752717</v>
       </c>
       <c r="F12">
-        <v>0.07686540328056141</v>
+        <v>0.1318568753084098</v>
       </c>
       <c r="G12">
-        <v>0.4624952139986188</v>
+        <v>0.793376098481673</v>
       </c>
       <c r="H12">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I12">
-        <v>1.921735161236909</v>
+        <v>3.296593561164377</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.4636290327575324</v>
+        <v>0.795321080129278</v>
       </c>
       <c r="C13">
-        <v>0.05632343212783691</v>
+        <v>0.09661865351716704</v>
       </c>
       <c r="D13">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="E13">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="F13">
-        <v>0.07686540328056141</v>
+        <v>0.1318568753084098</v>
       </c>
       <c r="G13">
-        <v>0.4111068568876611</v>
+        <v>0.7052231986503761</v>
       </c>
       <c r="I13">
-        <v>1.333936187322832</v>
+        <v>2.288268193678794</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.2700257003972442</v>
+        <v>0.4632089807346346</v>
       </c>
       <c r="C14">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D14">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="E14">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="F14">
-        <v>0.1152981049208421</v>
+        <v>0.1977853129626147</v>
       </c>
       <c r="G14">
-        <v>0.7708253566643645</v>
+        <v>1.322293497469455</v>
       </c>
       <c r="I14">
-        <v>1.565997681331815</v>
+        <v>2.686352405476118</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.1273706133949265</v>
+        <v>0.218494802233318</v>
       </c>
       <c r="C15">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="D15">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="E15">
-        <v>0.04675823492750041</v>
+        <v>0.08021027002190896</v>
       </c>
       <c r="F15">
-        <v>0.1152981049208421</v>
+        <v>0.1977853129626147</v>
       </c>
       <c r="G15">
-        <v>0.3597184997767034</v>
+        <v>0.6170702988190792</v>
       </c>
       <c r="I15">
-        <v>0.8578801746273754</v>
+        <v>1.471629554879407</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.07132754350115883</v>
+        <v>0.1223570892506581</v>
       </c>
       <c r="C16">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="D16">
-        <v>0.04611014381586892</v>
+        <v>0.07909851798200919</v>
       </c>
       <c r="F16">
-        <v>0.0384327016402807</v>
+        <v>0.06592843765420492</v>
       </c>
       <c r="G16">
-        <v>0.6166602853314914</v>
+        <v>1.057834797975564</v>
       </c>
       <c r="I16">
-        <v>0.8147732483846776</v>
+        <v>1.397682833000311</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.3464480684342003</v>
+        <v>0.5943058620746251</v>
       </c>
       <c r="D17">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="E17">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="F17">
-        <v>0.1024872043740819</v>
+        <v>0.1758091670778798</v>
       </c>
       <c r="G17">
-        <v>1.284708927773941</v>
+        <v>2.203822495782425</v>
       </c>
       <c r="I17">
-        <v>2.012897427923962</v>
+        <v>3.452975640986584</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.8355512238707173</v>
+        <v>1.433325902650566</v>
       </c>
       <c r="C18">
-        <v>0.05632343212783691</v>
+        <v>0.09661865351716704</v>
       </c>
       <c r="D18">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="E18">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="F18">
-        <v>0.3330834142157661</v>
+        <v>0.5713797930031094</v>
       </c>
       <c r="G18">
-        <v>2.877747998213628</v>
+        <v>4.936562390552633</v>
       </c>
       <c r="I18">
-        <v>4.848245462821429</v>
+        <v>8.316804051914421</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>2.639119109542877</v>
+        <v>4.527212302274351</v>
       </c>
       <c r="C19">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="D19">
-        <v>0.4611014381586891</v>
+        <v>0.7909851798200916</v>
       </c>
       <c r="E19">
-        <v>1.963845866955017</v>
+        <v>3.368831340920177</v>
       </c>
       <c r="F19">
-        <v>0.6661668284315322</v>
+        <v>1.142759586006219</v>
       </c>
       <c r="G19">
-        <v>4.11106856887661</v>
+        <v>7.052231986503761</v>
       </c>
       <c r="H19">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="I19">
-        <v>9.958955308806988</v>
+        <v>17.08384620792689</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>5.329186464443726</v>
+        <v>9.141822525442025</v>
       </c>
       <c r="C20">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D20">
-        <v>1.521634745923674</v>
+        <v>2.610251093406303</v>
       </c>
       <c r="E20">
-        <v>1.636538222462514</v>
+        <v>2.807359450766813</v>
       </c>
       <c r="F20">
-        <v>1.10173744702138</v>
+        <v>1.889948546087208</v>
       </c>
       <c r="G20">
-        <v>2.980524712435543</v>
+        <v>5.112868190215226</v>
       </c>
       <c r="H20">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="I20">
-        <v>12.80492858597136</v>
+        <v>21.96590143072215</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>5.853953391630822</v>
+        <v>10.0420211106433</v>
       </c>
       <c r="C21">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="D21">
-        <v>0.9222028763173782</v>
+        <v>1.581970359640183</v>
       </c>
       <c r="E21">
-        <v>1.215714108115011</v>
+        <v>2.085467020569633</v>
       </c>
       <c r="F21">
-        <v>0.9608175410070174</v>
+        <v>1.648210941355123</v>
       </c>
       <c r="G21">
-        <v>2.774971283991712</v>
+        <v>4.760256590890038</v>
       </c>
       <c r="H21">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="I21">
-        <v>12.03337048490626</v>
+        <v>20.64235096479931</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>4.575152433145759</v>
+        <v>7.848333296220788</v>
       </c>
       <c r="C22">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="D22">
-        <v>1.29108402684433</v>
+        <v>2.214758503496257</v>
       </c>
       <c r="E22">
-        <v>1.215714108115011</v>
+        <v>2.085467020569633</v>
       </c>
       <c r="F22">
-        <v>1.127359248114901</v>
+        <v>1.933900837856678</v>
       </c>
       <c r="G22">
-        <v>3.494408283545121</v>
+        <v>5.994397188528197</v>
       </c>
       <c r="H22">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="I22">
-        <v>11.92796897723281</v>
+        <v>20.46154252743395</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>3.225023931159537</v>
+        <v>5.532288392547611</v>
       </c>
       <c r="C23">
-        <v>0.2393745865433069</v>
+        <v>0.41062927744796</v>
       </c>
       <c r="D23">
-        <v>1.060533307764985</v>
+        <v>1.819265913586211</v>
       </c>
       <c r="E23">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="F23">
-        <v>1.383577259050105</v>
+        <v>2.373423755551377</v>
       </c>
       <c r="G23">
-        <v>3.443019926434161</v>
+        <v>5.9062442886969</v>
       </c>
       <c r="H23">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="I23">
-        <v>9.969933205719871</v>
+        <v>17.10267797257797</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>3.286161825589103</v>
+        <v>5.637165897619608</v>
       </c>
       <c r="C24">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D24">
-        <v>1.244973883028461</v>
+        <v>2.135659985514248</v>
       </c>
       <c r="E24">
-        <v>0.7013735239125063</v>
+        <v>1.203154050328635</v>
       </c>
       <c r="F24">
-        <v>1.281090054676023</v>
+        <v>2.197614588473497</v>
       </c>
       <c r="G24">
-        <v>3.083301426657458</v>
+        <v>5.28917398987782</v>
       </c>
       <c r="H24">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="I24">
-        <v>9.756796784801692</v>
+        <v>16.73705831435397</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>3.092558493228816</v>
+        <v>5.305053798224964</v>
       </c>
       <c r="C25">
-        <v>0.1830511544154699</v>
+        <v>0.3140106239307929</v>
       </c>
       <c r="D25">
-        <v>0.8299825886856407</v>
+        <v>1.423773323676165</v>
       </c>
       <c r="E25">
-        <v>0.6078570540575055</v>
+        <v>1.042733510284816</v>
       </c>
       <c r="F25">
-        <v>0.8070867344458946</v>
+        <v>1.384497190738303</v>
       </c>
       <c r="G25">
-        <v>2.261087712882136</v>
+        <v>3.878727592577069</v>
       </c>
       <c r="H25">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I25">
-        <v>7.831897686213053</v>
+        <v>13.43503725427505</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>3.576566824129535</v>
+        <v>6.135334046711568</v>
       </c>
       <c r="C26">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="D26">
-        <v>1.29108402684433</v>
+        <v>2.214758503496257</v>
       </c>
       <c r="E26">
-        <v>0.5143405842025045</v>
+        <v>0.8823129702409986</v>
       </c>
       <c r="F26">
-        <v>1.255468253582503</v>
+        <v>2.153662296704028</v>
       </c>
       <c r="G26">
-        <v>2.518029498436925</v>
+        <v>4.319492091733554</v>
       </c>
       <c r="H26">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="I26">
-        <v>9.379740064663487</v>
+        <v>16.0902455896488</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>3.464480684342003</v>
+        <v>5.943058620746253</v>
       </c>
       <c r="C27">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="D27">
-        <v>1.014423163949116</v>
+        <v>1.740167395604202</v>
       </c>
       <c r="E27">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="F27">
-        <v>0.7686540328056138</v>
+        <v>1.318568753084099</v>
       </c>
       <c r="G27">
-        <v>2.723582926880754</v>
+        <v>4.672103691058742</v>
       </c>
       <c r="H27">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I27">
-        <v>8.601643970005755</v>
+        <v>14.75547968258966</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>3.821118401847794</v>
+        <v>6.554844066999542</v>
       </c>
       <c r="C28">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="D28">
-        <v>1.70607532118715</v>
+        <v>2.926645165334339</v>
       </c>
       <c r="E28">
-        <v>0.7948899937675069</v>
+        <v>1.363574590372453</v>
       </c>
       <c r="F28">
-        <v>1.140170148661661</v>
+        <v>1.955876983741413</v>
       </c>
       <c r="G28">
-        <v>2.415252784215009</v>
+        <v>4.143186292070959</v>
       </c>
       <c r="H28">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I28">
-        <v>10.13294398502585</v>
+        <v>17.38231082537679</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>5.482031200517636</v>
+        <v>9.404016288122008</v>
       </c>
       <c r="C29">
-        <v>0.1689702963835108</v>
+        <v>0.2898559605515012</v>
       </c>
       <c r="D29">
-        <v>1.890515896450625</v>
+        <v>3.243039237262377</v>
       </c>
       <c r="E29">
-        <v>0.9351646985500084</v>
+        <v>1.604205400438179</v>
       </c>
       <c r="F29">
-        <v>1.217035551942222</v>
+        <v>2.087733859049822</v>
       </c>
       <c r="G29">
-        <v>1.644427427550645</v>
+        <v>2.820892794601504</v>
       </c>
       <c r="H29">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="I29">
-        <v>11.46382994263862</v>
+        <v>19.66534657713274</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>6.215685933672413</v>
+        <v>10.66254634898592</v>
       </c>
       <c r="C30">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="D30">
-        <v>1.844405752634756</v>
+        <v>3.163940719280367</v>
       </c>
       <c r="E30">
-        <v>1.07543940333251</v>
+        <v>1.844836210503906</v>
       </c>
       <c r="F30">
-        <v>0.7942758338991347</v>
+        <v>1.362521044853569</v>
       </c>
       <c r="G30">
-        <v>1.181932213552025</v>
+        <v>2.027516696119831</v>
       </c>
       <c r="H30">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="I30">
-        <v>11.43455602078225</v>
+        <v>19.61512934416103</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>5.828479268951837</v>
+        <v>9.998322150196639</v>
       </c>
       <c r="C31">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="D31">
-        <v>1.982736184082363</v>
+        <v>3.401236273226395</v>
       </c>
       <c r="E31">
-        <v>1.496263517680013</v>
+        <v>2.566728640701087</v>
       </c>
       <c r="F31">
-        <v>0.6149232262444913</v>
+        <v>1.054855002467279</v>
       </c>
       <c r="G31">
-        <v>1.901369213105432</v>
+        <v>3.261657293757989</v>
       </c>
       <c r="H31">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I31">
-        <v>12.01485393888132</v>
+        <v>20.61058720898524</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>3.709032262060259</v>
+        <v>6.362568641034224</v>
       </c>
       <c r="C32">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="D32">
-        <v>1.890515896450625</v>
+        <v>3.243039237262377</v>
       </c>
       <c r="E32">
-        <v>1.262472343042511</v>
+        <v>2.165677290591542</v>
       </c>
       <c r="F32">
-        <v>0.5380578229639297</v>
+        <v>0.9229981271588689</v>
       </c>
       <c r="G32">
-        <v>2.158310998660221</v>
+        <v>3.702421792914473</v>
       </c>
       <c r="I32">
-        <v>9.671036187433222</v>
+        <v>16.58994239599582</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>2.343619286466648</v>
+        <v>4.020304361093053</v>
       </c>
       <c r="C33">
-        <v>0.1689702963835108</v>
+        <v>0.2898559605515012</v>
       </c>
       <c r="D33">
-        <v>0.9683130201332473</v>
+        <v>1.661068877622193</v>
       </c>
       <c r="E33">
-        <v>1.496263517680013</v>
+        <v>2.566728640701087</v>
       </c>
       <c r="F33">
-        <v>0.2946507125754854</v>
+        <v>0.5054513553489044</v>
       </c>
       <c r="G33">
-        <v>1.849980855994475</v>
+        <v>3.173504393926692</v>
       </c>
       <c r="I33">
-        <v>7.121797689233381</v>
+        <v>12.21691358924343</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.981886744425057</v>
+        <v>3.399779122750429</v>
       </c>
       <c r="C34">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="D34">
-        <v>0.4611014381586891</v>
+        <v>0.7909851798200916</v>
       </c>
       <c r="E34">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="F34">
-        <v>0.2562180109352046</v>
+        <v>0.4395229176946996</v>
       </c>
       <c r="G34">
-        <v>1.593039070439687</v>
+        <v>2.732739894770208</v>
       </c>
       <c r="H34">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I34">
-        <v>4.883530593706151</v>
+        <v>8.377333066331031</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>1.569205957025494</v>
+        <v>2.691855963514479</v>
       </c>
       <c r="C35">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D35">
-        <v>0.5072115819745582</v>
+        <v>0.870083697802101</v>
       </c>
       <c r="E35">
-        <v>0.6546152889850058</v>
+        <v>1.122943780306726</v>
       </c>
       <c r="F35">
-        <v>0.3330834142157661</v>
+        <v>0.5713797930031094</v>
       </c>
       <c r="G35">
-        <v>1.695815784661602</v>
+        <v>2.909045694432801</v>
       </c>
       <c r="H35">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I35">
-        <v>4.911796723398854</v>
+        <v>8.425821506894312</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.8100771011917325</v>
+        <v>1.389626942203903</v>
       </c>
       <c r="C36">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="D36">
-        <v>0.2766608628952135</v>
+        <v>0.4745911078920552</v>
       </c>
       <c r="E36">
-        <v>0.3273076444925029</v>
+        <v>0.5614718901533629</v>
       </c>
       <c r="F36">
-        <v>0.1537308065611228</v>
+        <v>0.2637137506168197</v>
       </c>
       <c r="G36">
-        <v>0.8222137137753223</v>
+        <v>1.410446397300752</v>
       </c>
       <c r="I36">
-        <v>2.488556135139609</v>
+        <v>4.268932731821936</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.4941979799723148</v>
+        <v>0.8477598326652742</v>
       </c>
       <c r="C37">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="D37">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="E37">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="F37">
-        <v>0.166541707107883</v>
+        <v>0.2856898965015547</v>
       </c>
       <c r="G37">
-        <v>0.5138835711095763</v>
+        <v>0.8815289983129702</v>
       </c>
       <c r="H37">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="I37">
-        <v>1.652499416995442</v>
+        <v>2.834739691388458</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.2394567531824619</v>
+        <v>0.4107702281986378</v>
       </c>
       <c r="C38">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="D38">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="E38">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="F38">
-        <v>0.1152981049208421</v>
+        <v>0.1977853129626147</v>
       </c>
       <c r="G38">
-        <v>0.5652719282205341</v>
+        <v>0.9696818981442672</v>
       </c>
       <c r="I38">
-        <v>1.38684682891267</v>
+        <v>2.379032459172</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.1834136832886943</v>
+        <v>0.3146325152159781</v>
       </c>
       <c r="C39">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="F39">
-        <v>0.06405450273380116</v>
+        <v>0.1098807294236749</v>
       </c>
       <c r="G39">
-        <v>0.5652719282205341</v>
+        <v>0.9696818981442672</v>
       </c>
       <c r="I39">
-        <v>0.8549826883389072</v>
+        <v>1.466659132921796</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.1783188587528971</v>
+        <v>0.3058927231266453</v>
       </c>
       <c r="C40">
-        <v>0.05632343212783691</v>
+        <v>0.09661865351716704</v>
       </c>
       <c r="E40">
-        <v>0.09351646985500082</v>
+        <v>0.1604205400438179</v>
       </c>
       <c r="F40">
-        <v>0.1152981049208421</v>
+        <v>0.1977853129626147</v>
       </c>
       <c r="G40">
-        <v>1.07915549933011</v>
+        <v>1.851210896457237</v>
       </c>
       <c r="I40">
-        <v>1.522612364986687</v>
+        <v>2.611928126107482</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.3923014892563735</v>
+        <v>0.6729639908786197</v>
       </c>
       <c r="C41">
-        <v>0.02816171606391845</v>
+        <v>0.04830932675858352</v>
       </c>
       <c r="D41">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="E41">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="F41">
-        <v>0.2305962098416842</v>
+        <v>0.3955706259252295</v>
       </c>
       <c r="G41">
-        <v>2.055534284438305</v>
+        <v>3.526115993251881</v>
       </c>
       <c r="I41">
-        <v>3.078067214573759</v>
+        <v>5.280195088829986</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.8712149956212977</v>
+        <v>1.494504447275895</v>
       </c>
       <c r="C42">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D42">
-        <v>0.4149912943428203</v>
+        <v>0.7118866618380826</v>
       </c>
       <c r="E42">
-        <v>0.6546152889850058</v>
+        <v>1.122943780306726</v>
       </c>
       <c r="F42">
-        <v>0.3202725136690058</v>
+        <v>0.5494036471183743</v>
       </c>
       <c r="G42">
-        <v>2.62080621265884</v>
+        <v>4.495797891396149</v>
       </c>
       <c r="H42">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I42">
-        <v>5.016659401966315</v>
+        <v>8.60570562305392</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>2.898955160868526</v>
+        <v>4.972941698830319</v>
       </c>
       <c r="C43">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="D43">
-        <v>0.553321725790427</v>
+        <v>0.9491822157841104</v>
       </c>
       <c r="E43">
-        <v>2.104120571737519</v>
+        <v>3.609462150985903</v>
       </c>
       <c r="F43">
-        <v>0.832708535539415</v>
+        <v>1.428449482507773</v>
       </c>
       <c r="G43">
-        <v>4.008291854654696</v>
+        <v>6.875926186841166</v>
       </c>
       <c r="I43">
-        <v>10.46780213875038</v>
+        <v>17.95673505184573</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>5.242574447335175</v>
+        <v>8.993246059923372</v>
       </c>
       <c r="C44">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="D44">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="E44">
-        <v>1.683296457390015</v>
+        <v>2.887569720788723</v>
       </c>
       <c r="F44">
-        <v>1.024872043740819</v>
+        <v>1.758091670778798</v>
       </c>
       <c r="G44">
-        <v>3.648573354877993</v>
+        <v>6.258855888022087</v>
       </c>
       <c r="H44">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="I44">
-        <v>13.2179276115046</v>
+        <v>22.67437050377783</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>5.736772427307488</v>
+        <v>9.841005892588644</v>
       </c>
       <c r="C45">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="D45">
-        <v>1.29108402684433</v>
+        <v>2.214758503496257</v>
       </c>
       <c r="E45">
-        <v>1.12219763826001</v>
+        <v>1.925046480525815</v>
       </c>
       <c r="F45">
-        <v>0.8198976349926549</v>
+        <v>1.406473336623038</v>
       </c>
       <c r="G45">
-        <v>2.672194569769798</v>
+        <v>4.583950791227444</v>
       </c>
       <c r="H45">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I45">
-        <v>11.88350277448905</v>
+        <v>20.38526406794</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>4.320411206355907</v>
+        <v>7.411343691754153</v>
       </c>
       <c r="C46">
-        <v>0.2112128704793884</v>
+        <v>0.3623199506893765</v>
       </c>
       <c r="D46">
-        <v>1.337194170660199</v>
+        <v>2.293857021478267</v>
       </c>
       <c r="E46">
-        <v>1.028681168405009</v>
+        <v>1.764625940481997</v>
       </c>
       <c r="F46">
-        <v>0.9864393421005379</v>
+        <v>1.692163233124593</v>
       </c>
       <c r="G46">
-        <v>3.699961711988951</v>
+        <v>6.347008787853384</v>
       </c>
       <c r="H46">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I46">
-        <v>11.68444836698517</v>
+        <v>20.04380105506765</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>3.270877351981713</v>
+        <v>5.61094652135161</v>
       </c>
       <c r="C47">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="D47">
-        <v>1.29108402684433</v>
+        <v>2.214758503496257</v>
       </c>
       <c r="E47">
-        <v>0.7481317588400066</v>
+        <v>1.283364320350543</v>
       </c>
       <c r="F47">
-        <v>1.217035551942222</v>
+        <v>2.087733859049822</v>
       </c>
       <c r="G47">
-        <v>3.648573354877993</v>
+        <v>6.258855888022087</v>
       </c>
       <c r="H47">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="I47">
-        <v>10.44219549604983</v>
+        <v>17.91280876317059</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>3.179170510337365</v>
+        <v>5.453630263743621</v>
       </c>
       <c r="C48">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="D48">
-        <v>1.014423163949116</v>
+        <v>1.740167395604202</v>
       </c>
       <c r="E48">
-        <v>0.7948899937675069</v>
+        <v>1.363574590372453</v>
       </c>
       <c r="F48">
-        <v>1.165791949755181</v>
+        <v>1.999829275510883</v>
       </c>
       <c r="G48">
-        <v>2.62080621265884</v>
+        <v>4.495797891396149</v>
       </c>
       <c r="H48">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="I48">
-        <v>8.974195733686905</v>
+        <v>15.39456448996823</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>3.281067001053306</v>
+        <v>5.628426105530274</v>
       </c>
       <c r="C49">
-        <v>0.2252937285113476</v>
+        <v>0.3864746140686682</v>
       </c>
       <c r="D49">
-        <v>1.014423163949116</v>
+        <v>1.740167395604202</v>
       </c>
       <c r="E49">
-        <v>0.6078570540575055</v>
+        <v>1.042733510284816</v>
       </c>
       <c r="F49">
-        <v>0.9608175410070174</v>
+        <v>1.648210941355123</v>
       </c>
       <c r="G49">
-        <v>2.106922641549263</v>
+        <v>3.614268893083176</v>
       </c>
       <c r="H49">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="I49">
-        <v>8.246655078625146</v>
+        <v>14.1465226747692</v>
       </c>
     </row>
   </sheetData>
